--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t xml:space="preserve">TCID </t>
   </si>
@@ -58,9 +57,6 @@
     <t>Insert item on search button</t>
   </si>
   <si>
-    <t>Kids and Baby</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -155,6 +151,27 @@
   </si>
   <si>
     <t>We've got 10000+ results for 'Kids and Baby'</t>
+  </si>
+  <si>
+    <t>switching to Default window</t>
+  </si>
+  <si>
+    <t>switchDefaultWindow</t>
+  </si>
+  <si>
+    <t>women clothing</t>
+  </si>
+  <si>
+    <t>choosing size</t>
+  </si>
+  <si>
+    <t>chooseSize</t>
+  </si>
+  <si>
+    <t>verifying if  size is presence or not</t>
+  </si>
+  <si>
+    <t>chooseSize_xpath</t>
   </si>
 </sst>
 </file>
@@ -501,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
@@ -565,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -576,13 +593,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,13 +607,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -604,13 +621,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -621,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -635,13 +652,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -649,13 +666,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -663,16 +680,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -680,16 +697,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -697,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -711,16 +728,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -728,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -739,18 +756,52 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +825,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -785,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t xml:space="preserve">TCID </t>
   </si>
@@ -123,9 +123,6 @@
     <t>verifyElement</t>
   </si>
   <si>
-    <t>Click on 1st items</t>
-  </si>
-  <si>
     <t>firstItem_xpath</t>
   </si>
   <si>
@@ -147,38 +144,155 @@
     <t>addCartButton_xpath</t>
   </si>
   <si>
-    <t>addToCart</t>
-  </si>
-  <si>
     <t>We've got 10000+ results for 'Kids and Baby'</t>
   </si>
   <si>
     <t>switching to Default window</t>
   </si>
   <si>
-    <t>switchDefaultWindow</t>
-  </si>
-  <si>
-    <t>women clothing</t>
-  </si>
-  <si>
     <t>choosing size</t>
   </si>
   <si>
-    <t>chooseSize</t>
-  </si>
-  <si>
     <t>verifying if  size is presence or not</t>
   </si>
   <si>
     <t>chooseSize_xpath</t>
+  </si>
+  <si>
+    <t>Click on 1st item</t>
+  </si>
+  <si>
+    <t>Adding to cart</t>
+  </si>
+  <si>
+    <t>chooseProductDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids and Baby </t>
+  </si>
+  <si>
+    <t>Verifying if window is return to default or not</t>
+  </si>
+  <si>
+    <t>checkoutButton_xpath</t>
+  </si>
+  <si>
+    <t>Closing current window</t>
+  </si>
+  <si>
+    <t>closeCurrentWindow</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>signIn_xpath</t>
+  </si>
+  <si>
+    <t>Hover to SignIn</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>Click on new Register</t>
+  </si>
+  <si>
+    <t>newRegister_xpath</t>
+  </si>
+  <si>
+    <t>Switching on iframe</t>
+  </si>
+  <si>
+    <t>switchToIframe</t>
+  </si>
+  <si>
+    <t>newRegisterBox_id</t>
+  </si>
+  <si>
+    <t>Inserting new user name as Email Address</t>
+  </si>
+  <si>
+    <t>utesttester@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading text from New Register </t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>utesttester@gmail</t>
+  </si>
+  <si>
+    <t>Please enter a valid mobile number or email</t>
+  </si>
+  <si>
+    <t>labelCheckUserError_xpath</t>
+  </si>
+  <si>
+    <t>Inserting Phone Number</t>
+  </si>
+  <si>
+    <t>newUserName_xpath</t>
+  </si>
+  <si>
+    <t>continueButtonForCheckUser_xpath</t>
+  </si>
+  <si>
+    <t>Clear data</t>
+  </si>
+  <si>
+    <t>clearData</t>
+  </si>
+  <si>
+    <t>phoneNumber_xpath</t>
+  </si>
+  <si>
+    <t>Inserting User name</t>
+  </si>
+  <si>
+    <t>Inserting date of birth</t>
+  </si>
+  <si>
+    <t>Inserting Password</t>
+  </si>
+  <si>
+    <t>userName_xpath</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>dateOfBirth_xpath</t>
+  </si>
+  <si>
+    <t>password_xpath</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
+  </si>
+  <si>
+    <t>userSignUpButton_xpath</t>
+  </si>
+  <si>
+    <t>Clicking on continue button for signup</t>
+  </si>
+  <si>
+    <t>Dismising alert</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +307,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,14 +339,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,16 +651,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -644,7 +777,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -706,7 +839,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -714,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -728,16 +861,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -745,10 +878,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -756,66 +889,376 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="3">
+        <v>941582367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="4">
+        <v>38357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E28" r:id="rId1"/>
+    <hyperlink ref="E33" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,6 +1279,14 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
